--- a/target/test-classes/TESTNGPROJECT.xlsx
+++ b/target/test-classes/TESTNGPROJECT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKILA RAJESH\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA PROJECTS\TESTNG_PROJECT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B5C6F2B-A4D9-454E-B6C7-B3F6188970EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF46EE-49D5-470F-9A3A-8C2E620E27AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36FE2812-DA7D-4772-84CA-553840F137EE}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr573828</t>
+    <t>mngr577888</t>
   </si>
   <si>
-    <t>AvErEmA</t>
+    <t>ynetEqE</t>
   </si>
 </sst>
 </file>
@@ -60,7 +60,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -81,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,41 +118,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -161,10 +130,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,11 +467,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
